--- a/Inversiones de Tiempo/inversion de tiempo Guillermo Sandoval.xlsx
+++ b/Inversiones de Tiempo/inversion de tiempo Guillermo Sandoval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillermo Sandoval\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B12033C3-E29F-4630-A1D3-719928DE9951}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74C45F2-A0E5-40B1-A91B-502BC395AC88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="3360" xr2:uid="{B3260751-E4F8-6647-BAE6-F421EF5D5E63}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6770" xr2:uid="{B3260751-E4F8-6647-BAE6-F421EF5D5E63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Fecha</t>
   </si>
@@ -48,88 +48,76 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>35min</t>
-  </si>
-  <si>
-    <t>1er corte</t>
-  </si>
-  <si>
-    <t>12:00pm</t>
-  </si>
-  <si>
-    <t>12:25pm</t>
-  </si>
-  <si>
     <t>0min</t>
   </si>
   <si>
-    <t>25min</t>
-  </si>
-  <si>
-    <t>15min</t>
-  </si>
-  <si>
-    <t>20min</t>
-  </si>
-  <si>
     <t>Inversion de tiempo</t>
   </si>
   <si>
-    <t>13-2-2019</t>
-  </si>
-  <si>
-    <t>11:00am</t>
-  </si>
-  <si>
-    <t>11:20am</t>
-  </si>
-  <si>
-    <t>3min</t>
-  </si>
-  <si>
-    <t>17 min</t>
-  </si>
-  <si>
-    <t>Considero que redundó y pudo dar mejores respuestas.</t>
-  </si>
-  <si>
-    <t>Fueron muy buenas respuestas, especialmente por la experiencia de votar en USA</t>
-  </si>
-  <si>
-    <t>Las experiencias internacionales ayudaron mucho</t>
-  </si>
-  <si>
     <t>40min</t>
   </si>
   <si>
-    <t>Hizo muchas preguntas acerca del funcionamiento y la seguridad</t>
-  </si>
-  <si>
-    <t>Le preocupaba su seguridad al votar</t>
-  </si>
-  <si>
-    <t>4:10pm</t>
-  </si>
-  <si>
-    <t>4:30pm</t>
-  </si>
-  <si>
-    <t>14-2-2019</t>
-  </si>
-  <si>
-    <t>12:00am</t>
-  </si>
-  <si>
-    <t>12:55am</t>
-  </si>
-  <si>
-    <t>10:00am</t>
-  </si>
-  <si>
-    <t>10:40pm</t>
-  </si>
-  <si>
     <t>5min</t>
+  </si>
+  <si>
+    <t>20-2-2019</t>
+  </si>
+  <si>
+    <t>28-2-2019</t>
+  </si>
+  <si>
+    <t>4min</t>
+  </si>
+  <si>
+    <t>1:00pm</t>
+  </si>
+  <si>
+    <t>2do corte</t>
+  </si>
+  <si>
+    <t>Conclusión de la lluvia de ideas.</t>
+  </si>
+  <si>
+    <t>Comienzo de evaluar los requisitos no funcionales</t>
+  </si>
+  <si>
+    <t>1:20pm</t>
+  </si>
+  <si>
+    <t>16min</t>
+  </si>
+  <si>
+    <t>6:00pm</t>
+  </si>
+  <si>
+    <t>6:30pm</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>Se terminó la evaluación de requisitos funcionales y no funcionales a partir de las reglas de negocio</t>
+  </si>
+  <si>
+    <t>6:45pm</t>
+  </si>
+  <si>
+    <t>9:00pm</t>
+  </si>
+  <si>
+    <t>9:45pm</t>
+  </si>
+  <si>
+    <t>Diseño de prototipos basados en la captura de requisitos</t>
+  </si>
+  <si>
+    <t>Arreglos del documento</t>
+  </si>
+  <si>
+    <t>60min</t>
+  </si>
+  <si>
+    <t>10:05pm</t>
   </si>
 </sst>
 </file>
@@ -240,11 +228,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64017F8E-6D7F-AB4B-A7C2-E50AECF653F8}">
   <dimension ref="B3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -572,10 +560,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="2:8" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -603,117 +591,117 @@
     </row>
     <row r="6" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="3" t="s">
-        <v>29</v>
+      <c r="B9" s="3">
+        <v>43588</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="3">
+        <v>43802</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>26</v>
+      <c r="G10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Inversiones de Tiempo/inversion de tiempo Guillermo Sandoval.xlsx
+++ b/Inversiones de Tiempo/inversion de tiempo Guillermo Sandoval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillermo Sandoval\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74C45F2-A0E5-40B1-A91B-502BC395AC88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5C0A3B-7202-41D7-8223-7A3AC83F7C26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6770" xr2:uid="{B3260751-E4F8-6647-BAE6-F421EF5D5E63}"/>
+    <workbookView xWindow="1780" yWindow="1780" windowWidth="19200" windowHeight="10060" xr2:uid="{B3260751-E4F8-6647-BAE6-F421EF5D5E63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Fecha</t>
   </si>
@@ -118,6 +118,75 @@
   </si>
   <si>
     <t>10:05pm</t>
+  </si>
+  <si>
+    <t>3er corte</t>
+  </si>
+  <si>
+    <t>28/3/2019</t>
+  </si>
+  <si>
+    <t>24/3/2019</t>
+  </si>
+  <si>
+    <t>25/3/2019</t>
+  </si>
+  <si>
+    <t>26/3/2019</t>
+  </si>
+  <si>
+    <t>27/3/2019</t>
+  </si>
+  <si>
+    <t>20min</t>
+  </si>
+  <si>
+    <t>15min</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>Terminar los diagramas</t>
+  </si>
+  <si>
+    <t>Continuar con los diagramas</t>
+  </si>
+  <si>
+    <t>Comenzar con los diagramas</t>
+  </si>
+  <si>
+    <t>Búsqueda de información para los diagramas</t>
+  </si>
+  <si>
+    <t>10:00pm</t>
+  </si>
+  <si>
+    <t>11:15pm</t>
+  </si>
+  <si>
+    <t>9:00am</t>
+  </si>
+  <si>
+    <t>10:20am</t>
+  </si>
+  <si>
+    <t>11:00pm</t>
+  </si>
+  <si>
+    <t>11:20pm</t>
+  </si>
+  <si>
+    <t>11:30pm</t>
+  </si>
+  <si>
+    <t>Distribución de contenido</t>
+  </si>
+  <si>
+    <t>3:00pm</t>
+  </si>
+  <si>
+    <t>3:30pm</t>
   </si>
 </sst>
 </file>
@@ -202,12 +271,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -228,11 +303,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64017F8E-6D7F-AB4B-A7C2-E50AECF653F8}">
-  <dimension ref="B3:H10"/>
+  <dimension ref="B3:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -560,10 +635,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="2:8" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -700,8 +775,123 @@
       <c r="G10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
